--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/99511865/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/99511865/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9987351298332214</v>
+        <v>0.9911078214645386</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987784028053284</v>
+        <v>0.9683889150619507</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9847057461738586</v>
+        <v>0.923760712146759</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987711310386658</v>
+        <v>0.9917371869087219</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987736344337463</v>
+        <v>0.9917697906494141</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.998788058757782</v>
+        <v>0.9918426275253296</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9987742304801941</v>
+        <v>0.9917781352996826</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.998788058757782</v>
+        <v>0.9918426275253296</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9987801909446716</v>
+        <v>0.9910694360733032</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9987939596176147</v>
+        <v>0.9918922185897827</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9947433471679688</v>
+        <v>0.9757986068725586</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9987887740135193</v>
+        <v>0.9918175339698792</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9983581900596619</v>
+        <v>0.9849792122840881</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9987693428993225</v>
+        <v>0.9917476177215576</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9987679123878479</v>
+        <v>0.991717517375946</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.951643705368042</v>
+        <v>0.8145931959152222</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9987702965736389</v>
+        <v>0.9914278388023376</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9987882971763611</v>
+        <v>0.9918416738510132</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9987804293632507</v>
+        <v>0.9918264150619507</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9987848401069641</v>
+        <v>0.99184250831604</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9987766146659851</v>
+        <v>0.9918448328971863</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9987841248512268</v>
+        <v>0.9918819069862366</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9877486824989319</v>
+        <v>0.9317783713340759</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9356168508529663</v>
+        <v>0.7774818539619446</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9987770915031433</v>
+        <v>0.9917028546333313</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9987668991088867</v>
+        <v>0.9916933178901672</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9987640380859375</v>
+        <v>0.9916219711303711</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.99874347448349</v>
+        <v>0.9915600419044495</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9987523555755615</v>
+        <v>0.9917476177215576</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9944360256195068</v>
+        <v>0.9741386771202087</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9942364096641541</v>
+        <v>0.9758422374725342</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9947513937950134</v>
+        <v>0.9759220480918884</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9987829327583313</v>
+        <v>0.9917955994606018</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9946856498718262</v>
+        <v>0.9758761525154114</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9987887740135193</v>
+        <v>0.9918851852416992</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9837048649787903</v>
+        <v>0.97478187084198</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9933700561523438</v>
+        <v>0.96513831615448</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9987840056419373</v>
+        <v>0.9917632341384888</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9871102571487427</v>
+        <v>0.969835102558136</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9944011569023132</v>
+        <v>0.9741889834403992</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9947497248649597</v>
+        <v>0.9759345054626465</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9942463040351868</v>
+        <v>0.9744559526443481</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9939715266227722</v>
+        <v>0.9742598533630371</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9508846998214722</v>
+        <v>0.7795854806900024</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9943909049034119</v>
+        <v>0.9738805890083313</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9987899661064148</v>
+        <v>0.9919428825378418</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9943763017654419</v>
+        <v>0.9736176729202271</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9938876032829285</v>
+        <v>0.9708808660507202</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9987481832504272</v>
+        <v>0.9916313290596008</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9943763017654419</v>
+        <v>0.9736176729202271</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9942750334739685</v>
+        <v>0.9728502035140991</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9987693428993225</v>
+        <v>0.9917859435081482</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.998789370059967</v>
+        <v>0.9918469190597534</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9987867474555969</v>
+        <v>0.9918997287750244</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9947137236595154</v>
+        <v>0.9757541418075562</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9987785220146179</v>
+        <v>0.9916180968284607</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.998772919178009</v>
+        <v>0.9915761351585388</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9987629652023315</v>
+        <v>0.9916953444480896</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9987804293632507</v>
+        <v>0.9918571710586548</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9947596192359924</v>
+        <v>0.9759010076522827</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.58441162109375</v>
+        <v>0.7913211584091187</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9947598576545715</v>
+        <v>0.9759460687637329</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9947598576545715</v>
+        <v>0.9759460687637329</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.994576096534729</v>
+        <v>0.9759027361869812</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9947598576545715</v>
+        <v>0.9759460687637329</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9884517192840576</v>
+        <v>0.943526029586792</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9987698197364807</v>
+        <v>0.9917752742767334</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.983091413974762</v>
+        <v>0.9578447341918945</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9987198114395142</v>
+        <v>0.9914319515228271</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9947047829627991</v>
+        <v>0.9760035276412964</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9987890124320984</v>
+        <v>0.991877555847168</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9987635612487793</v>
+        <v>0.9915834069252014</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9947047829627991</v>
+        <v>0.9760035276412964</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9987556934356689</v>
+        <v>0.991609513759613</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9947047829627991</v>
+        <v>0.9760035276412964</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9987757802009583</v>
+        <v>0.9918501377105713</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9947043061256409</v>
+        <v>0.9758255481719971</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9987524747848511</v>
+        <v>0.991597592830658</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9947043061256409</v>
+        <v>0.9758255481719971</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9987444877624512</v>
+        <v>0.9915054440498352</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9987444877624512</v>
+        <v>0.9915054440498352</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9987916350364685</v>
+        <v>0.9918395280838013</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9947471022605896</v>
+        <v>0.9760713577270508</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9987841248512268</v>
+        <v>0.9916330575942993</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9947044253349304</v>
+        <v>0.9759913682937622</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9987480640411377</v>
+        <v>0.9916247725486755</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9987860321998596</v>
+        <v>0.991866409778595</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9987830519676208</v>
+        <v>0.9918598532676697</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9987857937812805</v>
+        <v>0.9918741583824158</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9987832903862</v>
+        <v>0.9918649792671204</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9987830519676208</v>
+        <v>0.9918590188026428</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9987844824790955</v>
+        <v>0.9918654561042786</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9987965822219849</v>
+        <v>0.9918900728225708</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9713067412376404</v>
+        <v>0.8686267137527466</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9987855553627014</v>
+        <v>0.9918435215950012</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9975589513778687</v>
+        <v>0.9506948590278625</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9987743496894836</v>
+        <v>0.9918200969696045</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9987804293632507</v>
+        <v>0.9918190240859985</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9849182963371277</v>
+        <v>0.9015546441078186</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9938749670982361</v>
+        <v>0.9726583361625671</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9987743496894836</v>
+        <v>0.9916868805885315</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9886533617973328</v>
+        <v>0.9448100924491882</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.998777449131012</v>
+        <v>0.9918117523193359</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9941591024398804</v>
+        <v>0.9743340611457825</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9877639412879944</v>
+        <v>0.9313216805458069</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9987775683403015</v>
+        <v>0.9917913675308228</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9944156408309937</v>
+        <v>0.97383713722229</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9943848848342896</v>
+        <v>0.9737227559089661</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9946135878562927</v>
+        <v>0.9760278463363647</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.998791515827179</v>
+        <v>0.9918889403343201</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9939379692077637</v>
+        <v>0.9748845100402832</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9987342953681946</v>
+        <v>0.9913730621337891</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9987708926200867</v>
+        <v>0.9916539192199707</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9675805568695068</v>
+        <v>0.8577196598052979</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9931601285934448</v>
+        <v>0.8016262054443359</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9886405467987061</v>
+        <v>0.9443187117576599</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9987926483154297</v>
+        <v>0.9919090867042542</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9886405467987061</v>
+        <v>0.9443187117576599</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9987926483154297</v>
+        <v>0.9919090867042542</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9886405467987061</v>
+        <v>0.9443187117576599</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9987757802009583</v>
+        <v>0.9918482303619385</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9386981129646301</v>
+        <v>0.8627252578735352</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9965135455131531</v>
+        <v>0.9478034377098083</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9858365058898926</v>
+        <v>0.5232236385345459</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9987742304801941</v>
+        <v>0.9917179346084595</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9738513827323914</v>
+        <v>0.7867380380630493</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9987773299217224</v>
+        <v>0.991740345954895</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9987886548042297</v>
+        <v>0.9918033480644226</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9987793564796448</v>
+        <v>0.991765558719635</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9987605810165405</v>
+        <v>0.8677449822425842</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9987689852714539</v>
+        <v>0.9917746782302856</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9987680315971375</v>
+        <v>0.9916822910308838</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9987605810165405</v>
+        <v>0.9916866421699524</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9987576007843018</v>
+        <v>0.9916176199913025</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9787927269935608</v>
+        <v>0.9218170642852783</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9947636127471924</v>
+        <v>0.9757040739059448</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9987866282463074</v>
+        <v>0.9918801188468933</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9947636127471924</v>
+        <v>0.9757040739059448</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9987497329711914</v>
+        <v>0.9916253685951233</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9884517192840576</v>
+        <v>0.943526029586792</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9987781643867493</v>
+        <v>0.9918258190155029</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9947997331619263</v>
+        <v>0.9759389162063599</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9810876846313477</v>
+        <v>0.8503124713897705</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7076718807220459</v>
+        <v>0.9298454523086548</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9987936019897461</v>
+        <v>0.991908073425293</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9877529144287109</v>
+        <v>0.9323775172233582</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9987873435020447</v>
+        <v>0.9918714761734009</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9877431392669678</v>
+        <v>0.9324406385421753</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9987898468971252</v>
+        <v>0.9918935298919678</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9877752065658569</v>
+        <v>0.9324175119400024</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9987884163856506</v>
+        <v>0.991891622543335</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9937888979911804</v>
+        <v>0.9753106832504272</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9987806677818298</v>
+        <v>0.9916913509368896</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8983296155929565</v>
+        <v>0.5607688426971436</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9987727999687195</v>
+        <v>0.9917055368423462</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9945343732833862</v>
+        <v>0.9756696820259094</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9987871050834656</v>
+        <v>0.9919185042381287</v>
       </c>
     </row>
     <row r="166">
@@ -5075,14 +5075,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9950762391090393</v>
+        <v>0.9707798957824707</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9942979216575623</v>
+        <v>0.9730768799781799</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9942315816879272</v>
+        <v>0.9749406576156616</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9942979216575623</v>
+        <v>0.9730768799781799</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9942104816436768</v>
+        <v>0.9753348231315613</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9987527132034302</v>
+        <v>0.9916634559631348</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9987649917602539</v>
+        <v>0.9917375445365906</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9987635612487793</v>
+        <v>0.9917142987251282</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9987649917602539</v>
+        <v>0.9917375445365906</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9987649917602539</v>
+        <v>0.9917375445365906</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9987635612487793</v>
+        <v>0.9917142987251282</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9987794756889343</v>
+        <v>0.991826057434082</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.998734176158905</v>
+        <v>0.9914571642875671</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.998770534992218</v>
+        <v>0.9916917085647583</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.998782217502594</v>
+        <v>0.9917408227920532</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9987792372703552</v>
+        <v>0.9918023943901062</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9885579347610474</v>
+        <v>0.9449547529220581</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9987857937812805</v>
+        <v>0.9918981790542603</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9987853169441223</v>
+        <v>0.991908848285675</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9987908005714417</v>
+        <v>0.9919258952140808</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9987791180610657</v>
+        <v>0.9918705224990845</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9987855553627014</v>
+        <v>0.9918334484100342</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9987748265266418</v>
+        <v>0.9917805790901184</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9987853169441223</v>
+        <v>0.9917722344398499</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9707039594650269</v>
+        <v>0.8602257966995239</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9987725615501404</v>
+        <v>0.9917762279510498</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9987682700157166</v>
+        <v>0.9917182922363281</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9885239005088806</v>
+        <v>0.9444233179092407</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9944297671318054</v>
+        <v>0.9743500351905823</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9987910389900208</v>
+        <v>0.9919167160987854</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9987902045249939</v>
+        <v>0.9918879866600037</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9987906813621521</v>
+        <v>0.991895854473114</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9987820982933044</v>
+        <v>0.9917538166046143</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5022713541984558</v>
+        <v>0.97181636095047</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9987841248512268</v>
+        <v>0.9918370842933655</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9987824559211731</v>
+        <v>0.9918261766433716</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9987670183181763</v>
+        <v>0.991713285446167</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9943564534187317</v>
+        <v>0.9738063216209412</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.998784601688385</v>
+        <v>0.9919208288192749</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9987673759460449</v>
+        <v>0.9917606115341187</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.971928596496582</v>
+        <v>0.8702158331871033</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9987314343452454</v>
+        <v>0.9914606809616089</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9364158511161804</v>
+        <v>0.8007990121841431</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9987698197364807</v>
+        <v>0.9917672276496887</v>
       </c>
     </row>
   </sheetData>
